--- a/Results/Test_Powietrze_04_Drogi_04_Samochody_ciezar_04_pearson.xlsx
+++ b/Results/Test_Powietrze_04_Drogi_04_Samochody_ciezar_04_pearson.xlsx
@@ -473,28 +473,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['POLSKA']</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[-0.5801699410448184]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.9591726064857609]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.00921208272494542]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[9.379405621550641e-11]</t>
-        </is>
+          <t>PODLASKIE</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6492171191404831</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9155992021447971</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002631577702317479</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.871233361161517e-08</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -506,28 +498,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>['POMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[0.5472508573517365]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.7806096539818363]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.015305859193800545]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[8.02411913213186e-05]</t>
-        </is>
+          <t>MAZOWIECKIE</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8470215491440193</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9707765302582662</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.766364730003666e-06</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.688059350259279e-12</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -539,28 +523,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>['LUBELSKIE']</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[-0.0425005791842]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[0.9687663007199085]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[0.8628430964406004]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[9.944357341580767e-12]</t>
-        </is>
+          <t>LUBUSKIE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3362105919717873</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9363755597811664</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1593141809329209</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.766493026224609e-09</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -572,31 +548,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['LUBUSKIE']</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[0.3362105919717873]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.9363755597811665]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[0.15931418093292088]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[3.766493026224501e-09]</t>
-        </is>
+          <t>WARMIŃSKO-MAZURSKIE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7346092194393476</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5144572318777869</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0003409397336878791</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02421933369422333</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -605,61 +573,45 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>['ŚLĄSKIE']</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[-0.7762095829785748]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.06973400964357142]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[9.346524565114633e-05]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[0.7766610897018984]</t>
-        </is>
+          <t>KUJAWSKO-POMORSKIE</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6033018505358365</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9587589491395636</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00624435265273928</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.020412368441917e-10</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>['PODLASKIE']</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[0.649217119140483]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[0.9155992021447967]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[0.002631577702317479]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[3.871233361161683e-08]</t>
-        </is>
+          <t>POLSKA</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.5801699410448184</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9591726064857607</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00921208272494542</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.379405621550641e-11</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -671,31 +623,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>['MAZOWIECKIE']</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[0.8470215491440192]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[0.9707765302582662]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[4.766364730003722e-06]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[5.688059350259279e-12]</t>
-        </is>
+          <t>OPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3112053190357159</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.5488238153306054</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1946618155334003</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.014955806879675</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -704,61 +648,45 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>['ŚWIĘTOKRZYSKIE']</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[0.7535428779315808]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[0.8409019217295256]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[0.00019510010046275901]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[6.508090016662605e-06]</t>
-        </is>
+          <t>ŚLĄSKIE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.7762095829785747</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06973400964357143</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.346524565114697e-05</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7766610897018984</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>['WIELKOPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[-0.8732976313587018]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[0.9225870182084361]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[1.0546951975206698e-06]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[1.9026343127197907e-08]</t>
-        </is>
+          <t>ZACHODNIOPOMORSKIE</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.6106592237822078</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8796567074461328</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.005484302088658644</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.963150128953678e-07</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -770,28 +698,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['DOLNOŚLĄSKIE']</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[-0.7057850639389894]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[0.9497483038855736]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[0.0007343311906069654]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[5.307265718970586e-10]</t>
-        </is>
+          <t>MAŁOPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.8948461800722587</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9461564310472689</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.333162822864083e-07</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.427101182907304e-10</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -803,31 +723,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>['OPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[0.31120531903571585]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[-0.5488238153306054]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[0.19466181553340028]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[0.014955806879674998]</t>
-        </is>
+          <t>PODKARPACKIE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.8486132637101026</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9359724882647861</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.385819946326237e-06</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.968683207329148e-09</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -836,31 +748,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>['ŁÓDZKIE']</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[0.5519352915476147]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[0.9105488364457535]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[0.014282216067757798]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[6.23377989526077e-08]</t>
-        </is>
+          <t>LUBELSKIE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.04250057918419994</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9687663007199084</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8628430964406004</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.944357341580767e-12</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -869,28 +773,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>['WARMIŃSKO-MAZURSKIE']</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[0.7346092194393478]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[0.514457231877787]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[0.00034093973368787696]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[0.024219333694223327]</t>
-        </is>
+          <t>POMORSKIE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5472508573517365</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7806096539818366</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01530585919380054</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8.024119132131784e-05</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -902,28 +798,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>['ZACHODNIOPOMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[-0.6106592237822079]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[0.8796567074461328]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[0.005484302088658644]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[6.963150128953678e-07]</t>
-        </is>
+          <t>ŁÓDZKIE</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5519352915476148</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9105488364457537</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0142822160677578</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.23377989526062e-08</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -935,28 +823,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>['PODKARPACKIE']</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[-0.8486132637101027]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>[0.9359724882647861]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[4.385819946326187e-06]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[3.968683207329148e-09]</t>
-        </is>
+          <t>WIELKOPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.8732976313587018</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9225870182084361</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.05469519752067e-06</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.902634312719791e-08</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -968,28 +848,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>['MAŁOPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[-0.8948461800722586]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[0.9461564310472689]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[2.3331628228640835e-07]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[9.427101182907304e-10]</t>
-        </is>
+          <t>ŚWIĘTOKRZYSKIE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7535428779315808</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8409019217295256</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.000195100100462759</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.508090016662605e-06</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1001,28 +873,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>['KUJAWSKO-POMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[0.6033018505358365]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[0.958758949139564]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[0.00624435265273928]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[1.020412368441823e-10]</t>
-        </is>
+          <t>DOLNOŚLĄSKIE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.7057850639389894</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9497483038855739</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0007343311906069654</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.307265718970406e-10</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>

--- a/Results/Test_Powietrze_04_Drogi_04_Samochody_ciezar_04_pearson.xlsx
+++ b/Results/Test_Powietrze_04_Drogi_04_Samochody_ciezar_04_pearson.xlsx
@@ -1,37 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Eksploracja danych\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117A271E-DB29-4576-8DA5-E72F7DF6F210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Administrative_Unit</t>
+  </si>
+  <si>
+    <t>Correlation_1_3</t>
+  </si>
+  <si>
+    <t>Correlation_2_3</t>
+  </si>
+  <si>
+    <t>P-Value_1_3</t>
+  </si>
+  <si>
+    <t>P-Value_2_3</t>
+  </si>
+  <si>
+    <t>Significance_1_3</t>
+  </si>
+  <si>
+    <t>Significance_2_3</t>
+  </si>
+  <si>
+    <t>PODLASKIE</t>
+  </si>
+  <si>
+    <t>MAZOWIECKIE</t>
+  </si>
+  <si>
+    <t>LUBUSKIE</t>
+  </si>
+  <si>
+    <t>WARMIŃSKO-MAZURSKIE</t>
+  </si>
+  <si>
+    <t>KUJAWSKO-POMORSKIE</t>
+  </si>
+  <si>
+    <t>POLSKA</t>
+  </si>
+  <si>
+    <t>OPOLSKIE</t>
+  </si>
+  <si>
+    <t>ŚLĄSKIE</t>
+  </si>
+  <si>
+    <t>ZACHODNIOPOMORSKIE</t>
+  </si>
+  <si>
+    <t>MAŁOPOLSKIE</t>
+  </si>
+  <si>
+    <t>PODKARPACKIE</t>
+  </si>
+  <si>
+    <t>LUBELSKIE</t>
+  </si>
+  <si>
+    <t>POMORSKIE</t>
+  </si>
+  <si>
+    <t>ŁÓDZKIE</t>
+  </si>
+  <si>
+    <t>WIELKOPOLSKIE</t>
+  </si>
+  <si>
+    <t>ŚWIĘTOKRZYSKIE</t>
+  </si>
+  <si>
+    <t>DOLNOŚLĄSKIE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +129,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,73 +453,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Administrative_Unit</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Correlation_1_3</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Correlation_2_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>P-Value_1_3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P-Value_2_3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Significance_1_3</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Significance_2_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PODLASKIE</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6492171191404831</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9155992021447971</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.002631577702317479</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.871233361161517e-08</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.64921711914048308</v>
+      </c>
+      <c r="C2">
+        <v>0.91559920214479706</v>
+      </c>
+      <c r="D2">
+        <v>2.6315777023174789E-3</v>
+      </c>
+      <c r="E2">
+        <v>3.8712333611615168E-8</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -495,23 +514,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MAZOWIECKIE</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8470215491440193</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9707765302582662</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.766364730003666e-06</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.688059350259279e-12</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.84702154914401928</v>
+      </c>
+      <c r="C3">
+        <v>0.97077653025826616</v>
+      </c>
+      <c r="D3">
+        <v>4.7663647300036664E-6</v>
+      </c>
+      <c r="E3">
+        <v>5.6880593502592786E-12</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -520,23 +537,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LUBUSKIE</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.3362105919717873</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9363755597811664</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1593141809329209</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.766493026224609e-09</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.33621059197178732</v>
+      </c>
+      <c r="C4">
+        <v>0.93637555978116638</v>
+      </c>
+      <c r="D4">
+        <v>0.15931418093292091</v>
+      </c>
+      <c r="E4">
+        <v>3.7664930262246087E-9</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -545,23 +560,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>WARMIŃSKO-MAZURSKIE</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7346092194393476</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5144572318777869</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0003409397336878791</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02421933369422333</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.73460921943934765</v>
+      </c>
+      <c r="C5">
+        <v>0.51445723187778691</v>
+      </c>
+      <c r="D5">
+        <v>3.4093973368787912E-4</v>
+      </c>
+      <c r="E5">
+        <v>2.4219333694223331E-2</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -570,23 +583,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KUJAWSKO-POMORSKIE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6033018505358365</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9587589491395636</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.00624435265273928</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.020412368441917e-10</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.60330185053583651</v>
+      </c>
+      <c r="C6">
+        <v>0.95875894913956361</v>
+      </c>
+      <c r="D6">
+        <v>6.2443526527392801E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.020412368441917E-10</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -595,23 +606,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>POLSKA</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.5801699410448184</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9591726064857607</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.00921208272494542</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9.379405621550641e-11</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>-0.58016994104481845</v>
+      </c>
+      <c r="C7">
+        <v>0.95917260648576075</v>
+      </c>
+      <c r="D7">
+        <v>9.2120827249454196E-3</v>
+      </c>
+      <c r="E7">
+        <v>9.3794056215506407E-11</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -620,23 +629,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>OPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.3112053190357159</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.5488238153306054</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1946618155334003</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.014955806879675</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.31120531903571591</v>
+      </c>
+      <c r="C8">
+        <v>-0.54882381533060542</v>
+      </c>
+      <c r="D8">
+        <v>0.19466181553340031</v>
+      </c>
+      <c r="E8">
+        <v>1.4955806879675E-2</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -645,22 +652,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ŚLĄSKIE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.7762095829785747</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06973400964357143</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.346524565114697e-05</v>
-      </c>
-      <c r="E9" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>-0.77620958297857467</v>
+      </c>
+      <c r="C9">
+        <v>6.9734009643571432E-2</v>
+      </c>
+      <c r="D9">
+        <v>9.3465245651146967E-5</v>
+      </c>
+      <c r="E9">
         <v>0.7766610897018984</v>
       </c>
       <c r="F9" t="b">
@@ -670,23 +675,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ZACHODNIOPOMORSKIE</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.6106592237822078</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8796567074461328</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.005484302088658644</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6.963150128953678e-07</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>-0.61065922378220783</v>
+      </c>
+      <c r="C10">
+        <v>0.87965670744613278</v>
+      </c>
+      <c r="D10">
+        <v>5.4843020886586437E-3</v>
+      </c>
+      <c r="E10">
+        <v>6.9631501289536776E-7</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -695,23 +698,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MAŁOPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.8948461800722587</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9461564310472689</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.333162822864083e-07</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.427101182907304e-10</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>-0.89484618007225869</v>
+      </c>
+      <c r="C11">
+        <v>0.94615643104726888</v>
+      </c>
+      <c r="D11">
+        <v>2.333162822864083E-7</v>
+      </c>
+      <c r="E11">
+        <v>9.4271011829073038E-10</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -720,23 +721,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PODKARPACKIE</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.8486132637101026</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9359724882647861</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4.385819946326237e-06</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.968683207329148e-09</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>-0.84861326371010259</v>
+      </c>
+      <c r="C12">
+        <v>0.93597248826478607</v>
+      </c>
+      <c r="D12">
+        <v>4.385819946326237E-6</v>
+      </c>
+      <c r="E12">
+        <v>3.9686832073291484E-9</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -745,23 +744,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>LUBELSKIE</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.04250057918419994</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9687663007199084</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.8628430964406004</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.944357341580767e-12</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>-4.2500579184199937E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.96876630071990844</v>
+      </c>
+      <c r="D13">
+        <v>0.86284309644060042</v>
+      </c>
+      <c r="E13">
+        <v>9.9443573415807666E-12</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -770,23 +767,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>POMORSKIE</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5472508573517365</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7806096539818366</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.01530585919380054</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.024119132131784e-05</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.54725085735173651</v>
+      </c>
+      <c r="C14">
+        <v>0.78060965398183657</v>
+      </c>
+      <c r="D14">
+        <v>1.530585919380054E-2</v>
+      </c>
+      <c r="E14">
+        <v>8.0241191321317844E-5</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -795,23 +790,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ŁÓDZKIE</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5519352915476148</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9105488364457537</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0142822160677578</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6.23377989526062e-08</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.55193529154761478</v>
+      </c>
+      <c r="C15">
+        <v>0.91054883644575368</v>
+      </c>
+      <c r="D15">
+        <v>1.42822160677578E-2</v>
+      </c>
+      <c r="E15">
+        <v>6.2337798952606201E-8</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -820,23 +813,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>WIELKOPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.8732976313587018</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9225870182084361</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.05469519752067e-06</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.902634312719791e-08</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>-0.87329763135870175</v>
+      </c>
+      <c r="C16">
+        <v>0.92258701820843614</v>
+      </c>
+      <c r="D16">
+        <v>1.05469519752067E-6</v>
+      </c>
+      <c r="E16">
+        <v>1.902634312719791E-8</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -845,23 +836,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ŚWIĘTOKRZYSKIE</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.7535428779315808</v>
-      </c>
-      <c r="C17" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.75354287793158081</v>
+      </c>
+      <c r="C17">
         <v>0.8409019217295256</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.000195100100462759</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.508090016662605e-06</v>
+      <c r="D17">
+        <v>1.9510010046275899E-4</v>
+      </c>
+      <c r="E17">
+        <v>6.5080900166626049E-6</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -870,23 +859,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>DOLNOŚLĄSKIE</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.7057850639389894</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9497483038855739</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0007343311906069654</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5.307265718970406e-10</v>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>-0.70578506393898943</v>
+      </c>
+      <c r="C18">
+        <v>0.94974830388557385</v>
+      </c>
+      <c r="D18">
+        <v>7.3433119060696539E-4</v>
+      </c>
+      <c r="E18">
+        <v>5.3072657189704062E-10</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
